--- a/biology/Zoologie/Behind_The_Cove/Behind_The_Cove.xlsx
+++ b/biology/Zoologie/Behind_The_Cove/Behind_The_Cove.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Behind "The Cove" - La réponse du Japon (ビハインド・ザ・コーヴ 〜捕鯨問題の謎に迫る〜, bihaindo za kōvu 〜hogeimondai no nazo ni semaru〜?) est un film documentaire japonais sorti en 2015, dirigé et produit par Keiko Yagi (八木 景子?)[1],[2].
-C'est le premier film réalisé en réponse au film documentaire américain The Cove, sorti en 2009 et Oscar du meilleur film documentaire, sur la pêche aux dauphins au Japon. Le film cherche à montrer les différents points de vue du débat international sur la chasse à la baleine, notamment à Taiji, au Japon[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behind "The Cove" - La réponse du Japon (ビハインド・ザ・コーヴ 〜捕鯨問題の謎に迫る〜, bihaindo za kōvu 〜hogeimondai no nazo ni semaru〜?) est un film documentaire japonais sorti en 2015, dirigé et produit par Keiko Yagi (八木 景子?),.
+C'est le premier film réalisé en réponse au film documentaire américain The Cove, sorti en 2009 et Oscar du meilleur film documentaire, sur la pêche aux dauphins au Japon. Le film cherche à montrer les différents points de vue du débat international sur la chasse à la baleine, notamment à Taiji, au Japon.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 31 mars 2014, sur plainte de l'Australie, la Cour internationale de Justice a ordonné au Japon l'arrêt de son programme de chasse à la baleine en Antarctique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 mars 2014, sur plainte de l'Australie, la Cour internationale de Justice a ordonné au Japon l'arrêt de son programme de chasse à la baleine en Antarctique.
 Craignant que des traditions culinaires ancestrales disparaissent, la réalisatrice Keiko Yagi a décidé de mener l'enquête et comprendre ce qui motive les attaques régulières envers le Japon concernant la chasse à la baleine. Munie d'une caméra, Keiko Yagi s'est rendu dans la ville de Taiji, lieu principal du film documentaire américain The Cove, sorti en 2009 et Oscar du meilleur film documentaire. Quatre mois durant, Keiko Yagi a interviewé les différents protagonistes du film "The Cove", de son réalisateur jusqu'aux habitants de Taiji en passant par les organismes officiels et les associations militantes.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : ビハインド・ザ・コーヴ 〜捕鯨問題の謎に迫る〜 (bihaindo za kōvu 〜hogeimondai no nazo ni semaru〜)
 Titre français : Behind "The Cove" - La réponse du Japon
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Louie Psihoyos : Réalisateur du film The Cove
 Ric O'Barry : Fondateur de l'association Dolphin Project
@@ -638,27 +656,29 @@
           <t>Prix et nominations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film a reçu différents prix internationaux.
 2015
-Montreal World Film Festival, Official Screening[5]
+Montreal World Film Festival, Official Screening
 2016
-Hollywood International Independent Documentary Awards, Award of Excellence[6]
-Hollywood International Moving Pictures Film Festival, Award of Recognition[7]
-Los Angeles Independent Film Festival Awards, First Time Filmmaker[8]
-Pune Independent Film Festival, Best Woman Filmmaker[9]
+Hollywood International Independent Documentary Awards, Award of Excellence
+Hollywood International Moving Pictures Film Festival, Award of Recognition
+Los Angeles Independent Film Festival Awards, First Time Filmmaker
+Pune Independent Film Festival, Best Woman Filmmaker
 2017
-Calcutta International Cult Film Festival, Films of the Month Educational Film Winner[10]
-Calcutta International Cult Film Festival, Golden Fox Award Nominee for Best Educational Film[11]
-Miami Independent Film Festival, Feature Documentary[12]
-Portsmouth International Film Festival, Sound in a Documentary[13]
+Calcutta International Cult Film Festival, Films of the Month Educational Film Winner
+Calcutta International Cult Film Festival, Golden Fox Award Nominee for Best Educational Film
+Miami Independent Film Festival, Feature Documentary
+Portsmouth International Film Festival, Sound in a Documentary
 2018
-13th Japan Wildlife Film Festival, New Perspective Award[14]
-International Filmmaker Festival of New York, Honorable Mention[15]
-London International Filmmaker Festival, Best Director of a Feature Documentary[16]
-London Greek Film Festival, Semi-Finalist[17]
-Paris Art and Movie Awards, Meilleur Documentaire[18]</t>
+13th Japan Wildlife Film Festival, New Perspective Award
+International Filmmaker Festival of New York, Honorable Mention
+London International Filmmaker Festival, Best Director of a Feature Documentary
+London Greek Film Festival, Semi-Finalist
+Paris Art and Movie Awards, Meilleur Documentaire</t>
         </is>
       </c>
     </row>
